--- a/data/trans_orig/P13A_1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_2023-Clase-trans_orig.xlsx
@@ -754,7 +754,7 @@
         <v>14290</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11622</v>
+        <v>11747</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>14996</v>
@@ -763,7 +763,7 @@
         <v>0.9529154854843094</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7750376025233242</v>
+        <v>0.7833726294349233</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -775,16 +775,16 @@
         <v>16799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14095</v>
+        <v>13509</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>17505</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9596649888064887</v>
+        <v>0.9596649888064889</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8051979961415495</v>
+        <v>0.7717452481368859</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3374</v>
+        <v>3249</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.04708451451569064</v>
+        <v>0.04708451451569065</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2249623974766752</v>
+        <v>0.2166273705650769</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -841,16 +841,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3410</v>
+        <v>3996</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04033501119351128</v>
+        <v>0.04033501119351129</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1948020038584504</v>
+        <v>0.2282547518631154</v>
       </c>
     </row>
     <row r="6">
@@ -1293,19 +1293,19 @@
         <v>43468</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40315</v>
+        <v>39836</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44937</v>
+        <v>44923</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9586091654591037</v>
+        <v>0.9586091654591035</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8890635104117751</v>
+        <v>0.8785068745921654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.990993438155779</v>
+        <v>0.9906978291215052</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -1314,19 +1314,19 @@
         <v>56745</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53285</v>
+        <v>52818</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58207</v>
+        <v>58221</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9679836858997838</v>
+        <v>0.967983685899784</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9089616201062958</v>
+        <v>0.9009982543010199</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9929288927110328</v>
+        <v>0.9931559164489061</v>
       </c>
     </row>
     <row r="14">
@@ -1356,19 +1356,19 @@
         <v>1877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5030</v>
+        <v>5509</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.0413908345408965</v>
+        <v>0.04139083454089649</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009006561844220875</v>
+        <v>0.009302170878494874</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1109364895882249</v>
+        <v>0.1214931254078339</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1377,19 +1377,19 @@
         <v>1877</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5337</v>
+        <v>5804</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0320163141002161</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007071107288967256</v>
+        <v>0.006844083551093953</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09103837989370513</v>
+        <v>0.09900174569898046</v>
       </c>
     </row>
     <row r="15">
@@ -1494,19 +1494,19 @@
         <v>51506</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45826</v>
+        <v>46102</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54385</v>
+        <v>54216</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9239583403093522</v>
+        <v>0.9239583403093523</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8220654889893052</v>
+        <v>0.8270155296379882</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.975605050813357</v>
+        <v>0.9725685763780352</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1515,19 +1515,19 @@
         <v>63375</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57888</v>
+        <v>56974</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66040</v>
+        <v>65947</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9373062133699337</v>
+        <v>0.9373062133699335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8561482568993177</v>
+        <v>0.8426292173387185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9767281784103867</v>
+        <v>0.9753524365712344</v>
       </c>
     </row>
     <row r="17">
@@ -1557,19 +1557,19 @@
         <v>4239</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1360</v>
+        <v>1529</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9919</v>
+        <v>9643</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07604165969064779</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0243949491866428</v>
+        <v>0.02743142362196515</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1779345110106945</v>
+        <v>0.1729844703620123</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1578,19 +1578,19 @@
         <v>4239</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1574</v>
+        <v>1667</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9726</v>
+        <v>10640</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0626937866300666</v>
+        <v>0.06269378663006658</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02327182158961401</v>
+        <v>0.02464756342876553</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1438517431006832</v>
+        <v>0.1573707826612811</v>
       </c>
     </row>
     <row r="18">
@@ -1864,19 +1864,19 @@
         <v>152942</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>146677</v>
+        <v>146355</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>156311</v>
+        <v>156266</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.95730011855089</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9180854945193319</v>
+        <v>0.9160709743094516</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9783887696796069</v>
+        <v>0.9781031820490853</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>257</v>
@@ -1885,19 +1885,19 @@
         <v>192850</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>186330</v>
+        <v>186096</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>196556</v>
+        <v>196540</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9658344648972016</v>
+        <v>0.9658344648972014</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9331802883689331</v>
+        <v>0.932010649108674</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9843942117410727</v>
+        <v>0.9843146851865454</v>
       </c>
     </row>
     <row r="23">
@@ -1927,19 +1927,19 @@
         <v>6822</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3453</v>
+        <v>3498</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13087</v>
+        <v>13409</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.04269988144910991</v>
+        <v>0.0426998814491099</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02161123032039328</v>
+        <v>0.02189681795091457</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0819145054806677</v>
+        <v>0.08392902569054814</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -1948,19 +1948,19 @@
         <v>6822</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3116</v>
+        <v>3132</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13342</v>
+        <v>13576</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03416553510279854</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01560578825892742</v>
+        <v>0.01568531481345435</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06681971163106729</v>
+        <v>0.06798935089132536</v>
       </c>
     </row>
     <row r="24">
